--- a/biology/Zoologie/Dermatobia_hominis/Dermatobia_hominis.xlsx
+++ b/biology/Zoologie/Dermatobia_hominis/Dermatobia_hominis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dermatobia est un genre d'insectes diptères, qui ne comprend qu'une espèce, Dermatobia hominis. Il s'agirait du seul Cuterebrinae (famille des Oestridae) s'attaquant aux primates, incluant l'humain. On le rencontre du Mexique à l'Argentine. Sa larve, communément appelée en Guyane « ver macaque[1] », est responsable d'une myase cuticole furonculoïde[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dermatobia est un genre d'insectes diptères, qui ne comprend qu'une espèce, Dermatobia hominis. Il s'agirait du seul Cuterebrinae (famille des Oestridae) s'attaquant aux primates, incluant l'humain. On le rencontre du Mexique à l'Argentine. Sa larve, communément appelée en Guyane « ver macaque », est responsable d'une myase cuticole furonculoïde.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Cycle de vie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour sa reproduction, la femelle gravide capture un moustique et accroche ses œufs en grappe sur son abdomen (c'est un cas de phorésie). L'éclosion est déclenchée par la température lorsque le moustique se pose sur un hôte à sang chaud. La larve pénètre alors à travers la peau de l'hôte, s'installant généralement à proximité de la zone où le moustique transporteur se pose. Pour l'homme, il s'agit souvent de zones découvertes comme les membres, le visage, le cou, etc. Le stade larvaire peut alors durer de 1 à 3 mois (pour comparaison, le développement larvaire du ver de Cayor (Diptera Calliphoridae) dure de 8 à 10 jours). La larve est un gros asticot grisâtre dont la longueur peut atteindre 2 cm. Sa tête recouverte d'aspérités disposées en anneaux a la particularité de représenter la moitié supérieure de la larve. À maturité, la larve sort du furoncle, tombe au sol, et se pupose. Après 2 à 3 semaines la métamorphose aboutit à une petite mouche grise prête à se reproduire.
 La lésion ressemble au début à une piqûre de moustique. En se développant, la larve consomme les tissus, grossit et bouge en s'étirant et se contractant pour respirer à la surface et évacuer ses déchets. Ce mode de vie provoque chez l'hôte douleur et prurit.
@@ -549,7 +563,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le traitement préventif consiste à se protéger des moustiques : moustiquaires, répulsif, etc.
 On peut utiliser de l'alcool pour tuer la larve avant qu'elle ne pénètre dans la peau.
@@ -559,7 +575,7 @@
 Le ver macaque ne peut être extrait facilement en raison de sa tête dure et de son corps hérissé de protubérances. Certaines personnes rapportent le succès de l'extraction par pression, mais cette approche engendre le risque de tuer la larve et d'entraîner une infection.
 Le traitement chirurgical est possible par exérèse de la larve sous anesthésie locale. Il existe cependant un risque de préjudice esthétique.
 Récemment, des chirurgiens ont découvert que les seringues extractrices de venin (type aspivenin) permettent de retirer facilement la larve à n'importe quel stade de développement.
-Des pédiatres péruviens expérimentèrent avec succès l'utilisation de feuilles et de broyats de basilic pour extraire une larve de la région orbitaire d'un adolescent de 16 ans, expliquant que ce parasite apprécie ce végétal et son odeur[3],[4],[5].</t>
+Des pédiatres péruviens expérimentèrent avec succès l'utilisation de feuilles et de broyats de basilic pour extraire une larve de la région orbitaire d'un adolescent de 16 ans, expliquant que ce parasite apprécie ce végétal et son odeur.</t>
         </is>
       </c>
     </row>
@@ -587,9 +603,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Dermatobia hominis a pour synonymes[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dermatobia hominis a pour synonymes :
 Cuterebra cyaniventris Macquart, 1844
 Cuterebra noxialis Goudot, 1845
 Oestrus hominis Linnaeus, 1781
